--- a/welding-report/Resources/Templates/WeldingReportTemplate.xlsx
+++ b/welding-report/Resources/Templates/WeldingReportTemplate.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>№ Акта</t>
   </si>
@@ -69,26 +69,21 @@
   </si>
   <si>
     <t>Тип обрудования</t>
+  </si>
+  <si>
+    <t>Итого по акту:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -138,16 +133,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -156,23 +188,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,7 +493,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,9 +537,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="11"/>
       <c r="E2" s="1" t="s">
         <v>8</v>

--- a/welding-report/Resources/Templates/WeldingReportTemplate.xlsx
+++ b/welding-report/Resources/Templates/WeldingReportTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\welding-report\welding-report\Resources\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\welding-report-api\welding-report\Resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31B1280-AD76-46F7-8548-1C5960BFBBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180"/>
+    <workbookView xWindow="17184" yWindow="2568" windowWidth="19584" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -77,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -194,12 +186,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,25 +477,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="74.140625" customWidth="1"/>
+    <col min="1" max="1" width="62.77734375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="74.109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,13 +526,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
@@ -555,7 +545,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -564,9 +554,9 @@
       <c r="F3" s="3"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -575,18 +565,18 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/welding-report/Resources/Templates/WeldingReportTemplate.xlsx
+++ b/welding-report/Resources/Templates/WeldingReportTemplate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\welding-report-api\welding-report\Resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31B1280-AD76-46F7-8548-1C5960BFBBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17184" yWindow="2568" windowWidth="19584" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17184" yWindow="2568" windowWidth="19584" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>№ Акта</t>
   </si>
@@ -64,12 +63,15 @@
   </si>
   <si>
     <t>Итого по акту:</t>
+  </si>
+  <si>
+    <t>Номер пункта</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -186,6 +188,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -195,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,110 +482,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.77734375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="74.109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="18" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="74.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/welding-report/Resources/Templates/WeldingReportTemplate.xlsx
+++ b/welding-report/Resources/Templates/WeldingReportTemplate.xlsx
@@ -176,32 +176,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,24 +486,24 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="7" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="74.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="31.5546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,13 +536,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
@@ -556,45 +556,46 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="3"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/welding-report/Resources/Templates/WeldingReportTemplate.xlsx
+++ b/welding-report/Resources/Templates/WeldingReportTemplate.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>№ Акта</t>
   </si>
@@ -50,15 +50,6 @@
     <t>Фото</t>
   </si>
   <si>
-    <t>сумм кол-во стыков</t>
-  </si>
-  <si>
-    <t>сумм кол-во п.м.</t>
-  </si>
-  <si>
-    <t>сумм кол-во дюймов</t>
-  </si>
-  <si>
     <t>Тип обрудования</t>
   </si>
   <si>
@@ -66,18 +57,29 @@
   </si>
   <si>
     <t>Номер пункта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сумм </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,39 +170,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -486,32 +482,31 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="31.5546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="31.5546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -535,61 +530,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
+      <c r="H2" s="1">
+        <f>SUM(H3:H999999)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(I3:I999999)</f>
+        <v>0</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="8"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="8"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/welding-report/Resources/Templates/WeldingReportTemplate.xlsx
+++ b/welding-report/Resources/Templates/WeldingReportTemplate.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\welding-report-api\welding-report\Resources\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\weling-report-api\welding-report\Resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C0B05-61DC-4D3A-B488-251A85482D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17184" yWindow="2568" windowWidth="19584" windowHeight="11280"/>
+    <workbookView xWindow="3765" yWindow="1155" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>№ Акта</t>
   </si>
@@ -53,25 +63,27 @@
     <t>Тип обрудования</t>
   </si>
   <si>
-    <t>Итого по акту:</t>
-  </si>
-  <si>
     <t>Номер пункта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сумм </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,74 +141,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,32 +448,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="9.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="31.5546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
@@ -530,29 +500,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <f>SUM(H3:H999999)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <f>SUM(I3:I999999)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="1"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -564,7 +525,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -576,7 +537,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -589,10 +550,7 @@
       <c r="J5" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>